--- a/CCF2014年下半年财务报表.xlsx
+++ b/CCF2014年下半年财务报表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>费用项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>报销内容见分表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝 308元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -293,7 +303,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -669,7 +681,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,10 +701,10 @@
       <c r="C1">
         <v>2693</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -707,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>2525</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -791,6 +803,10 @@
       </c>
       <c r="F7" t="s">
         <v>35</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -899,47 +915,45 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I13" s="6"/>
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9">
+        <v>762</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12">
+        <v>41932</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I14" s="6"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I15" s="6"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4">
-        <v>762</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10">
-        <v>41932</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7">
-        <v>1086</v>
+        <v>324</v>
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
@@ -949,13 +963,13 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7">
-        <v>1607</v>
+        <v>2369</v>
       </c>
       <c r="D27" s="7"/>
     </row>

--- a/CCF2014年下半年财务报表.xlsx
+++ b/CCF2014年下半年财务报表.xlsx
@@ -10,12 +10,12 @@
     <sheet name="财务总表" sheetId="1" r:id="rId1"/>
     <sheet name="报销001" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>费用项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,22 @@
   </si>
   <si>
     <t>支付宝 308元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晓东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机大会CCF餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝 275元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,13 +285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -302,10 +324,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -681,7 +704,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -707,7 +730,7 @@
       <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -719,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>2369</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -805,7 +828,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -915,30 +938,49 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="12">
         <v>762</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12">
+      <c r="D13" s="12"/>
+      <c r="E13" s="13">
         <v>41932</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I14" s="10"/>
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>275</v>
+      </c>
+      <c r="E14" s="8">
+        <v>41934</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I15" s="10"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" s="1"/>
@@ -949,7 +991,7 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7">
-        <v>324</v>
+        <v>599</v>
       </c>
       <c r="D25" s="7"/>
     </row>
@@ -969,7 +1011,7 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7">
-        <v>2369</v>
+        <v>2094</v>
       </c>
       <c r="D27" s="7"/>
     </row>
